--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1752,12 +1752,16 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2170,7 +2174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2178,7 +2182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -2186,7 +2190,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2202,6 +2206,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>577</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2216,6 +2223,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="n" s="0">
+        <v>1500000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2328,6 +2338,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="n" s="0">
+        <v>2500000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2397,6 +2410,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4880,77 +4896,77 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="0">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>574</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>1234</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>576</v>
       </c>
     </row>
